--- a/public/reports/Financial Control Audit February 6, 2019.xlsx
+++ b/public/reports/Financial Control Audit February 6, 2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>Stores</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>1114</t>
+  </si>
+  <si>
+    <t>1116</t>
   </si>
   <si>
     <t>1118</t>
@@ -738,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3967,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -5514,6 +5517,47 @@
         <v>0</v>
       </c>
       <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
         <v>0</v>
       </c>
     </row>
